--- a/SVN提交/周报/2.2019年3月4日周报.xlsx
+++ b/SVN提交/周报/2.2019年3月4日周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9765"/>
+    <workbookView windowWidth="14805" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>根据需求合理的补全表字段</t>
   </si>
   <si>
-    <t>5. springcloud的复习，并构思cloud的整体架构优化</t>
+    <t>5. springcloud的复习，并构思cloud的整体架构优化(微服务安全验证）</t>
   </si>
   <si>
     <t>复习springcloud，考虑整体结构的优化</t>
@@ -271,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
@@ -325,6 +325,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,14 +348,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -348,7 +355,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,14 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -379,22 +400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,32 +430,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,8 +444,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +459,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -513,181 +513,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,45 +866,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,26 +881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,6 +908,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,138 +987,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,12 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1323,9 +1317,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A2:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1720,7 +1711,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="55"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="5" t="s">
@@ -1736,7 +1727,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="56"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" ht="13.5" spans="1:13">
       <c r="A4" s="7"/>
@@ -1761,13 +1752,13 @@
         <v>5</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="55" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="56">
         <v>43528</v>
       </c>
     </row>
@@ -1785,7 +1776,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="59"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" ht="81" customHeight="1" spans="2:13">
       <c r="B6" s="17" t="s">
@@ -1803,7 +1794,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="60"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="21" t="s">
@@ -1821,7 +1812,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="61"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="23"/>
@@ -1837,7 +1828,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="23"/>
@@ -1853,7 +1844,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="62"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="23"/>
@@ -1867,7 +1858,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
-      <c r="M10" s="63"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" ht="10" customHeight="1" spans="2:13">
       <c r="B11" s="23"/>
@@ -1881,7 +1872,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="63"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" ht="3" hidden="1" customHeight="1" spans="2:13">
       <c r="B12" s="28"/>
@@ -1895,7 +1886,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="64"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="31" t="s">
@@ -1913,7 +1904,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
-      <c r="M13" s="65"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
@@ -1929,7 +1920,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" ht="88" customHeight="1" spans="2:13">
       <c r="B15" s="17" t="s">
@@ -1947,7 +1938,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="66"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="35" t="s">
@@ -1965,76 +1956,76 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="36"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="67"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="59"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="67"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="59"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="39"/>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="67"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="68"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" ht="27" spans="1:13">
-      <c r="A21" s="42"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
@@ -2071,220 +2062,220 @@
       </c>
     </row>
     <row r="22" ht="24" spans="1:13">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="44">
         <v>43507</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="44">
         <v>43522</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="44">
         <v>43507</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="44">
         <v>43528</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="67">
         <v>0.95</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43" t="s">
+    <row r="23" ht="13.5" spans="1:13">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="44">
         <v>43524</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="44">
         <v>43525</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="44">
         <v>43523</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="44">
         <v>43525</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="67">
         <v>1</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="2:13">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="49">
         <v>43522</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="49">
         <v>43523</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="49">
         <v>43522</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="49">
         <v>43525</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="70">
         <v>0.995</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="50" t="s">
+      <c r="M24" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="2:13">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="49">
         <v>43521</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="49">
         <v>43525</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="49">
         <v>43521</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="49">
         <v>43522</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="67">
         <v>1</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="48" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="2:13">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="49">
         <v>43521</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="49">
         <v>43525</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="49">
         <v>43522</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="49">
         <v>43524</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="67">
         <v>1</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="48" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="2:13">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="49">
         <v>43521</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="49">
         <v>43525</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="49">
         <v>43521</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="49">
         <v>43525</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="73">
+      <c r="K27" s="70">
         <v>0.6</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="48" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2321,344 +2312,344 @@
       </c>
     </row>
     <row r="29" ht="24" spans="2:13">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="51">
         <v>43528</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="53">
+      <c r="G29" s="52"/>
+      <c r="H29" s="51">
         <v>43529</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="74">
+      <c r="I29" s="52"/>
+      <c r="J29" s="71">
         <v>1</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="50">
         <v>0.5</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="52" t="s">
+      <c r="L29" s="72"/>
+      <c r="M29" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="52" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="51">
         <v>43528</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="53">
+      <c r="G30" s="52"/>
+      <c r="H30" s="51">
         <v>43529</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="74">
+      <c r="I30" s="52"/>
+      <c r="J30" s="71">
         <v>1</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="50">
         <v>0.5</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="76" t="s">
+      <c r="L30" s="48"/>
+      <c r="M30" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" ht="24" spans="2:13">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="51">
         <v>43528</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="53">
+      <c r="G31" s="52"/>
+      <c r="H31" s="51">
         <v>43536</v>
       </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="74">
+      <c r="I31" s="52"/>
+      <c r="J31" s="71">
         <v>0.95</v>
       </c>
-      <c r="K31" s="52" t="s">
+      <c r="K31" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="52" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="51">
         <v>43528</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="53">
+      <c r="G32" s="52"/>
+      <c r="H32" s="51">
         <v>43529</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="74">
+      <c r="I32" s="52"/>
+      <c r="J32" s="71">
         <v>1</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="50">
         <v>2</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="76" t="s">
+      <c r="L32" s="48"/>
+      <c r="M32" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" ht="36" spans="2:13">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="51">
         <v>43530</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="53">
+      <c r="G33" s="52"/>
+      <c r="H33" s="51">
         <v>43532</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="74">
+      <c r="I33" s="52"/>
+      <c r="J33" s="71">
         <v>1</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="50">
         <v>3</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M33" s="76" t="s">
+      <c r="M33" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" ht="24" spans="2:13">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="52" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="51">
         <v>43532</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="53">
+      <c r="G34" s="52"/>
+      <c r="H34" s="51">
         <v>43536</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="74">
+      <c r="I34" s="52"/>
+      <c r="J34" s="71">
         <v>0.5</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="50">
         <v>2</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="76" t="s">
+      <c r="L34" s="48"/>
+      <c r="M34" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" ht="24" spans="2:13">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="52" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="51">
         <v>43532</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="53">
+      <c r="G35" s="52"/>
+      <c r="H35" s="51">
         <v>43539</v>
       </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="74">
+      <c r="I35" s="52"/>
+      <c r="J35" s="71">
         <v>1</v>
       </c>
-      <c r="K35" s="52" t="s">
+      <c r="K35" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="50"/>
-      <c r="M35" s="76" t="s">
+      <c r="L35" s="48"/>
+      <c r="M35" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="77"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="77"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="77"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="77"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="10:10">
-      <c r="J40" s="77"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="10:10">
-      <c r="J41" s="77"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="10:10">
-      <c r="J42" s="77"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="77"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="77"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="77"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="77"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="77"/>
+      <c r="J47" s="74"/>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="77"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="77"/>
+      <c r="J49" s="74"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="77"/>
+      <c r="J50" s="74"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="77"/>
+      <c r="J51" s="74"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="77"/>
+      <c r="J52" s="74"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="77"/>
+      <c r="J53" s="74"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="77"/>
+      <c r="J54" s="74"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="77"/>
+      <c r="J55" s="74"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="77"/>
+      <c r="J56" s="74"/>
     </row>
     <row r="57" spans="10:10">
-      <c r="J57" s="77"/>
+      <c r="J57" s="74"/>
     </row>
     <row r="58" spans="10:10">
-      <c r="J58" s="77"/>
+      <c r="J58" s="74"/>
     </row>
     <row r="59" spans="10:10">
-      <c r="J59" s="77"/>
+      <c r="J59" s="74"/>
     </row>
     <row r="60" spans="10:10">
-      <c r="J60" s="77"/>
+      <c r="J60" s="74"/>
     </row>
     <row r="61" spans="10:10">
-      <c r="J61" s="77"/>
+      <c r="J61" s="74"/>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="77"/>
+      <c r="J62" s="74"/>
     </row>
     <row r="63" spans="10:10">
-      <c r="J63" s="77"/>
+      <c r="J63" s="74"/>
     </row>
     <row r="64" spans="10:10">
-      <c r="J64" s="77"/>
+      <c r="J64" s="74"/>
     </row>
     <row r="65" spans="10:10">
-      <c r="J65" s="77"/>
+      <c r="J65" s="74"/>
     </row>
     <row r="66" spans="10:10">
-      <c r="J66" s="77"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="10:10">
-      <c r="J67" s="77"/>
+      <c r="J67" s="74"/>
     </row>
     <row r="68" spans="10:10">
-      <c r="J68" s="77"/>
+      <c r="J68" s="74"/>
     </row>
     <row r="69" spans="10:10">
-      <c r="J69" s="77"/>
+      <c r="J69" s="74"/>
     </row>
     <row r="70" spans="10:10">
-      <c r="J70" s="77"/>
+      <c r="J70" s="74"/>
     </row>
     <row r="71" spans="10:10">
-      <c r="J71" s="77"/>
+      <c r="J71" s="74"/>
     </row>
     <row r="72" spans="10:10">
-      <c r="J72" s="77"/>
+      <c r="J72" s="74"/>
     </row>
     <row r="73" spans="10:10">
-      <c r="J73" s="77"/>
+      <c r="J73" s="74"/>
     </row>
     <row r="74" spans="10:10">
-      <c r="J74" s="77"/>
+      <c r="J74" s="74"/>
     </row>
     <row r="75" spans="10:10">
-      <c r="J75" s="77"/>
+      <c r="J75" s="74"/>
     </row>
     <row r="76" spans="10:10">
-      <c r="J76" s="77"/>
+      <c r="J76" s="74"/>
     </row>
     <row r="77" spans="10:10">
-      <c r="J77" s="77"/>
+      <c r="J77" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="51">

--- a/SVN提交/周报/2.2019年3月4日周报.xlsx
+++ b/SVN提交/周报/2.2019年3月4日周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14805" windowHeight="7785"/>
+    <workbookView windowWidth="23445" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>项目周报</t>
   </si>
@@ -92,6 +92,9 @@
     <t>4.继续研究office-online的使用（胡昌荣）</t>
   </si>
   <si>
+    <t>5.文件服务器的研究（胡昌荣）</t>
+  </si>
+  <si>
     <t>周日会议讨论后，表设计还存在不足地方，需要补全</t>
   </si>
   <si>
@@ -263,7 +266,19 @@
     <t>7. 继续研究office-online的使用</t>
   </si>
   <si>
+    <t>在线预览编辑</t>
+  </si>
+  <si>
     <t>7~12</t>
+  </si>
+  <si>
+    <t>8.文件服务器的研究（胡昌荣）</t>
+  </si>
+  <si>
+    <t>文件服务器的选型</t>
+  </si>
+  <si>
+    <t>7~13</t>
   </si>
 </sst>
 </file>
@@ -271,8 +286,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -325,14 +340,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,7 +363,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,15 +385,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,39 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,10 +432,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,9 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,14 +482,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -513,181 +528,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,6 +881,45 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +935,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,65 +982,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,138 +1002,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1317,6 +1338,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,10 +1698,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M77"/>
+  <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1711,7 +1735,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="53"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="5" t="s">
@@ -1727,7 +1751,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="54"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" ht="13.5" spans="1:13">
       <c r="A4" s="7"/>
@@ -1752,13 +1776,13 @@
         <v>5</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="57" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="58">
         <v>43528</v>
       </c>
     </row>
@@ -1776,7 +1800,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="57"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6" ht="81" customHeight="1" spans="2:13">
       <c r="B6" s="17" t="s">
@@ -1794,7 +1818,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="21" t="s">
@@ -1812,7 +1836,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="59"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="23"/>
@@ -1828,7 +1852,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="59"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="23"/>
@@ -1844,7 +1868,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="60"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="23"/>
@@ -1858,7 +1882,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" ht="10" customHeight="1" spans="2:13">
       <c r="B11" s="23"/>
@@ -1872,7 +1896,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="61"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" ht="3" hidden="1" customHeight="1" spans="2:13">
       <c r="B12" s="28"/>
@@ -1886,7 +1910,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="62"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="31" t="s">
@@ -1904,7 +1928,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
-      <c r="M13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
@@ -1920,7 +1944,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="57"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" ht="88" customHeight="1" spans="2:13">
       <c r="B15" s="17" t="s">
@@ -1938,7 +1962,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="64"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="35" t="s">
@@ -1956,7 +1980,7 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="59"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="36"/>
@@ -1972,7 +1996,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="36"/>
@@ -1988,10 +2012,10 @@
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="59"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
@@ -2004,12 +2028,10 @@
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="59"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="37"/>
       <c r="C20" s="38" t="s">
         <v>23</v>
       </c>
@@ -2022,637 +2044,682 @@
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="65"/>
-    </row>
-    <row r="21" ht="27" spans="1:13">
-      <c r="A21" s="40"/>
-      <c r="B21" s="11" t="s">
+      <c r="M20" s="67"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="68"/>
+    </row>
+    <row r="22" ht="27" spans="1:13">
+      <c r="A22" s="42"/>
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="G22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="J22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="K22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" ht="24" spans="1:13">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41" t="s">
+      <c r="M22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="41" t="s">
+    </row>
+    <row r="23" ht="24" spans="1:13">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43" t="s">
+      <c r="C23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="44">
+      <c r="D23" s="44"/>
+      <c r="E23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="46">
         <v>43507</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G23" s="46">
         <v>43522</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H23" s="46">
         <v>43507</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I23" s="46">
         <v>43528</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J23" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="1:13">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="46">
+        <v>43524</v>
+      </c>
+      <c r="G24" s="46">
+        <v>43525</v>
+      </c>
+      <c r="H24" s="46">
+        <v>43523</v>
+      </c>
+      <c r="I24" s="46">
+        <v>43525</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="70">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="2:13">
+      <c r="B25" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="67">
+      <c r="F25" s="51">
+        <v>43522</v>
+      </c>
+      <c r="G25" s="51">
+        <v>43523</v>
+      </c>
+      <c r="H25" s="51">
+        <v>43522</v>
+      </c>
+      <c r="I25" s="51">
+        <v>43525</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="73">
+        <v>0.995</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="2:13">
+      <c r="B26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="51">
+        <v>43521</v>
+      </c>
+      <c r="G26" s="51">
+        <v>43525</v>
+      </c>
+      <c r="H26" s="51">
+        <v>43521</v>
+      </c>
+      <c r="I26" s="51">
+        <v>43522</v>
+      </c>
+      <c r="J26" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="70">
+        <v>1</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="2:13">
+      <c r="B27" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="51">
+        <v>43521</v>
+      </c>
+      <c r="G27" s="51">
+        <v>43525</v>
+      </c>
+      <c r="H27" s="51">
+        <v>43522</v>
+      </c>
+      <c r="I27" s="51">
+        <v>43524</v>
+      </c>
+      <c r="J27" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="70">
+        <v>1</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="2:13">
+      <c r="B28" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="51">
+        <v>43521</v>
+      </c>
+      <c r="G28" s="51">
+        <v>43525</v>
+      </c>
+      <c r="H28" s="51">
+        <v>43521</v>
+      </c>
+      <c r="I28" s="51">
+        <v>43525</v>
+      </c>
+      <c r="J28" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="2:13">
+      <c r="B30" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="53">
+        <v>43528</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="53">
+        <v>43529</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="74">
+        <v>1</v>
+      </c>
+      <c r="K30" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="75"/>
+      <c r="M30" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="53">
+        <v>43528</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="53">
+        <v>43529</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="74">
+        <v>1</v>
+      </c>
+      <c r="K31" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="50"/>
+      <c r="M31" s="76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="2:13">
+      <c r="B32" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="53">
+        <v>43528</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="53">
+        <v>43536</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="74">
         <v>0.95</v>
       </c>
-      <c r="L22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:13">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41" t="s">
+      <c r="K32" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="44">
-        <v>43524</v>
-      </c>
-      <c r="G23" s="44">
-        <v>43525</v>
-      </c>
-      <c r="H23" s="44">
-        <v>43523</v>
-      </c>
-      <c r="I23" s="44">
-        <v>43525</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="67">
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="53">
+        <v>43528</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="53">
+        <v>43529</v>
+      </c>
+      <c r="I33" s="54"/>
+      <c r="J33" s="74">
         <v>1</v>
       </c>
-      <c r="L23" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="2:13">
-      <c r="B24" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="49">
-        <v>43522</v>
-      </c>
-      <c r="G24" s="49">
-        <v>43523</v>
-      </c>
-      <c r="H24" s="49">
-        <v>43522</v>
-      </c>
-      <c r="I24" s="49">
-        <v>43525</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="70">
-        <v>0.995</v>
-      </c>
-      <c r="L24" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="2:13">
-      <c r="B25" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="49">
-        <v>43521</v>
-      </c>
-      <c r="G25" s="49">
-        <v>43525</v>
-      </c>
-      <c r="H25" s="49">
-        <v>43521</v>
-      </c>
-      <c r="I25" s="49">
-        <v>43522</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="67">
+      <c r="K33" s="52">
+        <v>2</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="M33" s="76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="2:13">
+      <c r="B34" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="53">
+        <v>43530</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="53">
+        <v>43532</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="74">
         <v>1</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="K34" s="52">
+        <v>3</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" ht="24" spans="2:13">
+      <c r="B35" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="2:13">
-      <c r="B26" s="45" t="s">
+      <c r="F35" s="53">
+        <v>43532</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="53">
+        <v>43536</v>
+      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="52">
+        <v>2</v>
+      </c>
+      <c r="L35" s="50"/>
+      <c r="M35" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="49">
-        <v>43521</v>
-      </c>
-      <c r="G26" s="49">
-        <v>43525</v>
-      </c>
-      <c r="H26" s="49">
-        <v>43522</v>
-      </c>
-      <c r="I26" s="49">
-        <v>43524</v>
-      </c>
-      <c r="J26" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="67">
+    </row>
+    <row r="36" ht="24" spans="2:13">
+      <c r="B36" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="53">
+        <v>43532</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="53">
+        <v>43539</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="74">
         <v>1</v>
       </c>
-      <c r="L26" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="2:13">
-      <c r="B27" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="49">
-        <v>43521</v>
-      </c>
-      <c r="G27" s="49">
-        <v>43525</v>
-      </c>
-      <c r="H27" s="49">
-        <v>43521</v>
-      </c>
-      <c r="I27" s="49">
-        <v>43525</v>
-      </c>
-      <c r="J27" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="70">
-        <v>0.6</v>
-      </c>
-      <c r="L27" s="48" t="s">
+      <c r="K36" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="50"/>
+      <c r="M36" s="76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="24" spans="2:13">
+      <c r="B37" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" ht="24" spans="2:13">
-      <c r="B29" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="51">
-        <v>43528</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51">
-        <v>43529</v>
-      </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="71">
-        <v>1</v>
-      </c>
-      <c r="K29" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="72"/>
-      <c r="M29" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="51">
-        <v>43528</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="51">
-        <v>43529</v>
-      </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="71">
-        <v>1</v>
-      </c>
-      <c r="K30" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="48"/>
-      <c r="M30" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" ht="24" spans="2:13">
-      <c r="B31" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="51">
-        <v>43528</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="51">
-        <v>43536</v>
-      </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="71">
-        <v>0.95</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="51">
-        <v>43528</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="51">
-        <v>43529</v>
-      </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="71">
-        <v>1</v>
-      </c>
-      <c r="K32" s="50">
-        <v>2</v>
-      </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="2:13">
-      <c r="B33" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="51">
-        <v>43530</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="51">
-        <v>43532</v>
-      </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="71">
-        <v>1</v>
-      </c>
-      <c r="K33" s="50">
-        <v>3</v>
-      </c>
-      <c r="L33" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="M33" s="73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" ht="24" spans="2:13">
-      <c r="B34" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="51">
-        <v>43532</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51">
-        <v>43536</v>
-      </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="50">
-        <v>2</v>
-      </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" ht="24" spans="2:13">
-      <c r="B35" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="51">
-        <v>43532</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="51">
-        <v>43539</v>
-      </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="71">
-        <v>1</v>
-      </c>
-      <c r="K35" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10">
-      <c r="J36" s="74"/>
-    </row>
-    <row r="37" spans="10:10">
-      <c r="J37" s="74"/>
+      <c r="F37" s="53">
+        <v>43533</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="53">
+        <v>43540</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="J37" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="50"/>
+      <c r="M37" s="76" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="74"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="74"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="40" spans="10:10">
-      <c r="J40" s="74"/>
+      <c r="J40" s="77"/>
     </row>
     <row r="41" spans="10:10">
-      <c r="J41" s="74"/>
+      <c r="J41" s="77"/>
     </row>
     <row r="42" spans="10:10">
-      <c r="J42" s="74"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="74"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="74"/>
+      <c r="J44" s="77"/>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="74"/>
+      <c r="J45" s="77"/>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="74"/>
+      <c r="J46" s="77"/>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="74"/>
+      <c r="J47" s="77"/>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="74"/>
+      <c r="J48" s="77"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="74"/>
+      <c r="J49" s="77"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="74"/>
+      <c r="J50" s="77"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="74"/>
+      <c r="J51" s="77"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="74"/>
+      <c r="J52" s="77"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="74"/>
+      <c r="J53" s="77"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="74"/>
+      <c r="J54" s="77"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="74"/>
+      <c r="J55" s="77"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="74"/>
+      <c r="J56" s="77"/>
     </row>
     <row r="57" spans="10:10">
-      <c r="J57" s="74"/>
+      <c r="J57" s="77"/>
     </row>
     <row r="58" spans="10:10">
-      <c r="J58" s="74"/>
+      <c r="J58" s="77"/>
     </row>
     <row r="59" spans="10:10">
-      <c r="J59" s="74"/>
+      <c r="J59" s="77"/>
     </row>
     <row r="60" spans="10:10">
-      <c r="J60" s="74"/>
+      <c r="J60" s="77"/>
     </row>
     <row r="61" spans="10:10">
-      <c r="J61" s="74"/>
+      <c r="J61" s="77"/>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="74"/>
+      <c r="J62" s="77"/>
     </row>
     <row r="63" spans="10:10">
-      <c r="J63" s="74"/>
+      <c r="J63" s="77"/>
     </row>
     <row r="64" spans="10:10">
-      <c r="J64" s="74"/>
+      <c r="J64" s="77"/>
     </row>
     <row r="65" spans="10:10">
-      <c r="J65" s="74"/>
+      <c r="J65" s="77"/>
     </row>
     <row r="66" spans="10:10">
-      <c r="J66" s="74"/>
+      <c r="J66" s="77"/>
     </row>
     <row r="67" spans="10:10">
-      <c r="J67" s="74"/>
+      <c r="J67" s="77"/>
     </row>
     <row r="68" spans="10:10">
-      <c r="J68" s="74"/>
+      <c r="J68" s="77"/>
     </row>
     <row r="69" spans="10:10">
-      <c r="J69" s="74"/>
+      <c r="J69" s="77"/>
     </row>
     <row r="70" spans="10:10">
-      <c r="J70" s="74"/>
+      <c r="J70" s="77"/>
     </row>
     <row r="71" spans="10:10">
-      <c r="J71" s="74"/>
+      <c r="J71" s="77"/>
     </row>
     <row r="72" spans="10:10">
-      <c r="J72" s="74"/>
+      <c r="J72" s="77"/>
     </row>
     <row r="73" spans="10:10">
-      <c r="J73" s="74"/>
+      <c r="J73" s="77"/>
     </row>
     <row r="74" spans="10:10">
-      <c r="J74" s="74"/>
+      <c r="J74" s="77"/>
     </row>
     <row r="75" spans="10:10">
-      <c r="J75" s="74"/>
+      <c r="J75" s="77"/>
     </row>
     <row r="76" spans="10:10">
-      <c r="J76" s="74"/>
+      <c r="J76" s="77"/>
     </row>
     <row r="77" spans="10:10">
-      <c r="J77" s="74"/>
+      <c r="J77" s="77"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="55">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -2670,7 +2737,7 @@
     <mergeCell ref="C18:M18"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C21:M21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -2678,8 +2745,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -2701,12 +2766,18 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="C9:M12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J25">
       <formula1>"进行中,已完成,延迟"</formula1>
     </dataValidation>
   </dataValidations>
